--- a/lab-01/car_data1.xlsx
+++ b/lab-01/car_data1.xlsx
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>41315</v>
+        <v>42558.33333333334</v>
       </c>
     </row>
     <row r="19">
@@ -3639,7 +3639,7 @@
         <v>47</v>
       </c>
       <c r="N20" t="n">
-        <v>53</v>
+        <v>53.5</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -5568,10 +5568,10 @@
         <v>4800</v>
       </c>
       <c r="M32" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N32" t="n">
-        <v>54</v>
+        <v>53.5</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>4066</v>
       </c>
       <c r="G49" t="n">
-        <v>258</v>
+        <v>290.8</v>
       </c>
       <c r="H49" t="n">
         <v>3.63</v>
@@ -8448,7 +8448,7 @@
         <v>4066</v>
       </c>
       <c r="G50" t="n">
-        <v>258</v>
+        <v>290.8</v>
       </c>
       <c r="H50" t="n">
         <v>3.63</v>
@@ -8609,7 +8609,7 @@
         <v>3950</v>
       </c>
       <c r="G51" t="n">
-        <v>326</v>
+        <v>290.8</v>
       </c>
       <c r="H51" t="n">
         <v>3.54</v>
@@ -8621,7 +8621,7 @@
         <v>11.5</v>
       </c>
       <c r="K51" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="L51" t="n">
         <v>5000</v>
@@ -10872,7 +10872,7 @@
         <v>3.39</v>
       </c>
       <c r="J65" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="K65" t="n">
         <v>64</v>
@@ -12473,7 +12473,7 @@
         <v>3900</v>
       </c>
       <c r="G75" t="n">
-        <v>308</v>
+        <v>290.8</v>
       </c>
       <c r="H75" t="n">
         <v>3.8</v>
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="BA75" t="n">
-        <v>40960</v>
+        <v>42558.33333333334</v>
       </c>
     </row>
     <row r="76">
@@ -12634,7 +12634,7 @@
         <v>3715</v>
       </c>
       <c r="G76" t="n">
-        <v>304</v>
+        <v>290.8</v>
       </c>
       <c r="H76" t="n">
         <v>3.8</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="BA76" t="n">
-        <v>45400</v>
+        <v>42558.33333333334</v>
       </c>
     </row>
     <row r="77">
@@ -15228,7 +15228,7 @@
         <v>4800</v>
       </c>
       <c r="M92" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N92" t="n">
         <v>50</v>
@@ -18597,7 +18597,7 @@
         <v>3.46</v>
       </c>
       <c r="I113" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="J113" t="n">
         <v>8.4</v>
@@ -18919,7 +18919,7 @@
         <v>3.46</v>
       </c>
       <c r="I115" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="J115" t="n">
         <v>8.4</v>
@@ -21501,7 +21501,7 @@
         <v>10</v>
       </c>
       <c r="K131" t="n">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L131" t="n">
         <v>5750</v>
@@ -22300,7 +22300,7 @@
         <v>2.54</v>
       </c>
       <c r="I136" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="J136" t="n">
         <v>9.300000000000001</v>
@@ -26167,7 +26167,7 @@
         <v>3.35</v>
       </c>
       <c r="J160" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="K160" t="n">
         <v>56</v>
@@ -26328,7 +26328,7 @@
         <v>3.35</v>
       </c>
       <c r="J161" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="K161" t="n">
         <v>56</v>
@@ -28743,7 +28743,7 @@
         <v>3.35</v>
       </c>
       <c r="J176" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="K176" t="n">
         <v>73</v>
@@ -30031,7 +30031,7 @@
         <v>3.4</v>
       </c>
       <c r="J184" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="K184" t="n">
         <v>52</v>
@@ -30353,7 +30353,7 @@
         <v>3.4</v>
       </c>
       <c r="J186" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="K186" t="n">
         <v>52</v>
@@ -30836,7 +30836,7 @@
         <v>3.4</v>
       </c>
       <c r="J189" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="K189" t="n">
         <v>68</v>
@@ -31641,7 +31641,7 @@
         <v>3.4</v>
       </c>
       <c r="J194" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="K194" t="n">
         <v>68</v>
@@ -33412,7 +33412,7 @@
         <v>3.4</v>
       </c>
       <c r="J205" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="K205" t="n">
         <v>106</v>
